--- a/biology/Botanique/Crouania/Crouania.xlsx
+++ b/biology/Botanique/Crouania/Crouania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crouania est un genre d'algues rouges de la famille des Callithamniaceae. 
 Ce genre est nommé en hommage aux frères Crouan : Pierre-Louis Crouan et Hippolyte-Marie Crouan. 
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (26 juillet 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (26 juillet 2013) :
 Crouania attenuata (C.Agardh) J.Agardh (espèce type)
 Crouania boergesenii B.Subramanian
 Crouania brunyana Wollaston
@@ -531,13 +545,13 @@
 Crouania robbii Wollaston
 Crouania shepleyana Wollaston
 Crouania willae R.E.Norris
-Selon ITIS      (26 juillet 2013)[2] :
+Selon ITIS      (26 juillet 2013) :
 Crouania attenuata
-Selon NCBI  (26 juillet 2013)[3] :
+Selon NCBI  (26 juillet 2013) :
 Crouania attenuata
 Crouania elisiae
 Crouania minutissima
-Selon World Register of Marine Species                               (26 juillet 2013)[4] :
+Selon World Register of Marine Species                               (26 juillet 2013) :
 Crouania attenuata (C.Agardh) J.Agardh, 1842
 Crouania boergesenii B.Subramanian, 1985
 Crouania brunyana Wollaston, 1998
